--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4537,28 +4537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.9224902614392</v>
+        <v>223.4098348791697</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.9143770294214</v>
+        <v>305.6791922278409</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.1583382393281</v>
+        <v>276.505599145147</v>
       </c>
       <c r="AD2" t="n">
-        <v>181922.4902614392</v>
+        <v>223409.8348791697</v>
       </c>
       <c r="AE2" t="n">
-        <v>248914.3770294214</v>
+        <v>305679.1922278409</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.78935693691993e-06</v>
+        <v>4.715546299157816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.264660493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>225158.3382393281</v>
+        <v>276505.599145147</v>
       </c>
     </row>
     <row r="3">
@@ -4643,28 +4643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.154822354832</v>
+        <v>181.3130236225535</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.4484523090275</v>
+        <v>248.0804778863279</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.8407403694262</v>
+        <v>224.4040252600664</v>
       </c>
       <c r="AD3" t="n">
-        <v>150154.822354832</v>
+        <v>181313.0236225535</v>
       </c>
       <c r="AE3" t="n">
-        <v>205448.4523090275</v>
+        <v>248080.4778863279</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.175157058523594e-06</v>
+        <v>5.367760546665221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.381172839506173</v>
       </c>
       <c r="AH3" t="n">
-        <v>185840.7403694262</v>
+        <v>224404.0252600664</v>
       </c>
     </row>
     <row r="4">
@@ -4749,28 +4749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.6658609879065</v>
+        <v>158.9093136016486</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.6780632238619</v>
+        <v>217.4267334538117</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.0070340320268</v>
+        <v>196.6758311733792</v>
       </c>
       <c r="AD4" t="n">
-        <v>127665.8609879065</v>
+        <v>158909.3136016486</v>
       </c>
       <c r="AE4" t="n">
-        <v>174678.0632238619</v>
+        <v>217426.7334538117</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.45093114490269e-06</v>
+        <v>5.833970322551606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.871913580246915</v>
       </c>
       <c r="AH4" t="n">
-        <v>158007.0340320268</v>
+        <v>196675.8311733792</v>
       </c>
     </row>
     <row r="5">
@@ -4855,28 +4855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.1857723134217</v>
+        <v>150.4292249271637</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.075231784329</v>
+        <v>205.8239020142787</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.5115605404029</v>
+        <v>186.1803576817554</v>
       </c>
       <c r="AD5" t="n">
-        <v>119185.7723134217</v>
+        <v>150429.2249271637</v>
       </c>
       <c r="AE5" t="n">
-        <v>163075.231784329</v>
+        <v>205823.9020142787</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.666571670264063e-06</v>
+        <v>6.198521329938675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.524691358024691</v>
       </c>
       <c r="AH5" t="n">
-        <v>147511.5605404029</v>
+        <v>186180.3576817554</v>
       </c>
     </row>
     <row r="6">
@@ -4961,28 +4961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.9681423948531</v>
+        <v>146.041002808003</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.3044844610464</v>
+        <v>199.8197429161493</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.291565242358</v>
+        <v>180.7492271010593</v>
       </c>
       <c r="AD6" t="n">
-        <v>114968.1423948531</v>
+        <v>146041.002808003</v>
       </c>
       <c r="AE6" t="n">
-        <v>157304.4844610464</v>
+        <v>199819.7429161493</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.783897762241001e-06</v>
+        <v>6.396866909700661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH6" t="n">
-        <v>142291.565242358</v>
+        <v>180749.2271010593</v>
       </c>
     </row>
     <row r="7">
@@ -5067,28 +5067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.4103220606034</v>
+        <v>145.4831824737533</v>
       </c>
       <c r="AB7" t="n">
-        <v>156.54125007043</v>
+        <v>199.056508525533</v>
       </c>
       <c r="AC7" t="n">
-        <v>141.6011728707755</v>
+        <v>180.058834729477</v>
       </c>
       <c r="AD7" t="n">
-        <v>114410.3220606034</v>
+        <v>145483.1824737533</v>
       </c>
       <c r="AE7" t="n">
-        <v>156541.25007043</v>
+        <v>199056.508525533</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.801491424198152e-06</v>
+        <v>6.426609868169893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.33179012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>141601.1728707755</v>
+        <v>180058.8347294769</v>
       </c>
     </row>
   </sheetData>
@@ -5364,28 +5364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.5631793830112</v>
+        <v>412.9766484909659</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.1830313202474</v>
+        <v>565.0528697092223</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.9276683311065</v>
+        <v>511.1250168808568</v>
       </c>
       <c r="AD2" t="n">
-        <v>346563.1793830112</v>
+        <v>412976.6484909659</v>
       </c>
       <c r="AE2" t="n">
-        <v>474183.0313202474</v>
+        <v>565052.8697092222</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.789422747749644e-06</v>
+        <v>2.896334654188405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.59413580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>428927.6683311065</v>
+        <v>511125.0168808568</v>
       </c>
     </row>
     <row r="3">
@@ -5470,28 +5470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.2769383937743</v>
+        <v>312.6072725079779</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.0176573676576</v>
+        <v>427.7230615049413</v>
       </c>
       <c r="AC3" t="n">
-        <v>318.4215862084787</v>
+        <v>386.9017728279961</v>
       </c>
       <c r="AD3" t="n">
-        <v>257276.9383937743</v>
+        <v>312607.272507978</v>
       </c>
       <c r="AE3" t="n">
-        <v>352017.6573676576</v>
+        <v>427723.0615049413</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.196424659483458e-06</v>
+        <v>3.555102261092943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.630401234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>318421.5862084787</v>
+        <v>386901.7728279961</v>
       </c>
     </row>
     <row r="4">
@@ -5576,28 +5576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.1566328600932</v>
+        <v>260.4891728351134</v>
       </c>
       <c r="AB4" t="n">
-        <v>295.755041236656</v>
+        <v>356.4127782442462</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.5285951959241</v>
+        <v>322.3972429170905</v>
       </c>
       <c r="AD4" t="n">
-        <v>216156.6328600932</v>
+        <v>260489.1728351134</v>
       </c>
       <c r="AE4" t="n">
-        <v>295755.041236656</v>
+        <v>356412.7782442461</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.484416716065842e-06</v>
+        <v>4.02124217948815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.631172839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>267528.5951959242</v>
+        <v>322397.2429170905</v>
       </c>
     </row>
     <row r="5">
@@ -5682,28 +5682,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.5038162708611</v>
+        <v>231.7533107606749</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.6016787919768</v>
+        <v>317.0951040170881</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.6803957635004</v>
+        <v>286.8319923355648</v>
       </c>
       <c r="AD5" t="n">
-        <v>198503.8162708611</v>
+        <v>231753.3107606749</v>
       </c>
       <c r="AE5" t="n">
-        <v>271601.6787919768</v>
+        <v>317095.1040170881</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.707547910220526e-06</v>
+        <v>4.38239921232088e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.002314814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>245680.3957635004</v>
+        <v>286831.9923355649</v>
       </c>
     </row>
     <row r="6">
@@ -5788,28 +5788,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.5749089030579</v>
+        <v>208.9096547388922</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.2293361793628</v>
+        <v>285.8394060571233</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.302185498465</v>
+        <v>258.5592943212416</v>
       </c>
       <c r="AD6" t="n">
-        <v>175574.9089030579</v>
+        <v>208909.6547388922</v>
       </c>
       <c r="AE6" t="n">
-        <v>240229.3361793628</v>
+        <v>285839.4060571233</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.885817007862718e-06</v>
+        <v>4.670943082639565e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.570216049382717</v>
       </c>
       <c r="AH6" t="n">
-        <v>217302.185498465</v>
+        <v>258559.2943212416</v>
       </c>
     </row>
     <row r="7">
@@ -5894,28 +5894,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.378798439421</v>
+        <v>199.5429520746632</v>
       </c>
       <c r="AB7" t="n">
-        <v>227.6468121392607</v>
+        <v>273.0234702421744</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.9205198930628</v>
+        <v>246.9664934331884</v>
       </c>
       <c r="AD7" t="n">
-        <v>166378.798439421</v>
+        <v>199542.9520746632</v>
       </c>
       <c r="AE7" t="n">
-        <v>227646.8121392607</v>
+        <v>273023.4702421743</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.042121858910075e-06</v>
+        <v>4.923935930347319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.23070987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>205920.5198930628</v>
+        <v>246966.4934331884</v>
       </c>
     </row>
     <row r="8">
@@ -6000,28 +6000,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>160.3539685882305</v>
+        <v>193.5181222234727</v>
       </c>
       <c r="AB8" t="n">
-        <v>219.4033741401319</v>
+        <v>264.7800322430456</v>
       </c>
       <c r="AC8" t="n">
-        <v>198.4638240468303</v>
+        <v>239.5097975869559</v>
       </c>
       <c r="AD8" t="n">
-        <v>160353.9685882305</v>
+        <v>193518.1222234727</v>
       </c>
       <c r="AE8" t="n">
-        <v>219403.3741401319</v>
+        <v>264780.0322430456</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.156463697447391e-06</v>
+        <v>5.109008032395715e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>198463.8240468303</v>
+        <v>239509.7975869559</v>
       </c>
     </row>
     <row r="9">
@@ -6106,28 +6106,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.6042749956865</v>
+        <v>176.8536799769492</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.4857044224955</v>
+        <v>241.9790071780584</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.7333845618864</v>
+        <v>218.8848703527242</v>
       </c>
       <c r="AD9" t="n">
-        <v>143604.2749956865</v>
+        <v>176853.6799769492</v>
       </c>
       <c r="AE9" t="n">
-        <v>196485.7044224955</v>
+        <v>241979.0071780584</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.265056504996797e-06</v>
+        <v>5.284774833223801e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.806327160493828</v>
       </c>
       <c r="AH9" t="n">
-        <v>177733.3845618864</v>
+        <v>218884.8703527242</v>
       </c>
     </row>
     <row r="10">
@@ -6212,28 +6212,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.8548980708149</v>
+        <v>172.1043030520776</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.9873973861672</v>
+        <v>235.4807001417301</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.855266828672</v>
+        <v>213.0067526195098</v>
       </c>
       <c r="AD10" t="n">
-        <v>138854.8980708149</v>
+        <v>172104.3030520776</v>
       </c>
       <c r="AE10" t="n">
-        <v>189987.3973861672</v>
+        <v>235480.7001417301</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.361758154434458e-06</v>
+        <v>5.441294771698765e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.640432098765432</v>
       </c>
       <c r="AH10" t="n">
-        <v>171855.266828672</v>
+        <v>213006.7526195098</v>
       </c>
     </row>
     <row r="11">
@@ -6318,28 +6318,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>134.7220085476668</v>
+        <v>167.9714135289295</v>
       </c>
       <c r="AB11" t="n">
-        <v>184.3325956103813</v>
+        <v>229.8258983659442</v>
       </c>
       <c r="AC11" t="n">
-        <v>166.7401513978011</v>
+        <v>207.8916371886389</v>
       </c>
       <c r="AD11" t="n">
-        <v>134722.0085476668</v>
+        <v>167971.4135289295</v>
       </c>
       <c r="AE11" t="n">
-        <v>184332.5956103813</v>
+        <v>229825.8983659442</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.446716056811346e-06</v>
+        <v>5.578806445287797e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.501543209876544</v>
       </c>
       <c r="AH11" t="n">
-        <v>166740.1513978011</v>
+        <v>207891.6371886389</v>
       </c>
     </row>
     <row r="12">
@@ -6424,28 +6424,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.8046339588421</v>
+        <v>163.8834467395126</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.9726708755843</v>
+        <v>224.2325618563004</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.8917703569898</v>
+        <v>202.8321208651766</v>
       </c>
       <c r="AD12" t="n">
-        <v>130804.6339588421</v>
+        <v>163883.4467395126</v>
       </c>
       <c r="AE12" t="n">
-        <v>178972.6708755843</v>
+        <v>224232.5618563003</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.523910310503706e-06</v>
+        <v>5.703751985604954e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.378086419753086</v>
       </c>
       <c r="AH12" t="n">
-        <v>161891.7703569898</v>
+        <v>202832.1208651766</v>
       </c>
     </row>
     <row r="13">
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>129.0489269016502</v>
+        <v>162.1277396823207</v>
       </c>
       <c r="AB13" t="n">
-        <v>176.5704350236068</v>
+        <v>221.8303260043228</v>
       </c>
       <c r="AC13" t="n">
-        <v>159.7188005231651</v>
+        <v>200.6591510313519</v>
       </c>
       <c r="AD13" t="n">
-        <v>129048.9269016501</v>
+        <v>162127.7396823207</v>
       </c>
       <c r="AE13" t="n">
-        <v>176570.4350236068</v>
+        <v>221830.3260043228</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.558797592567091e-06</v>
+        <v>5.760220052839318e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.327932098765433</v>
       </c>
       <c r="AH13" t="n">
-        <v>159718.8005231651</v>
+        <v>200659.1510313519</v>
       </c>
     </row>
     <row r="14">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>130.0346413969489</v>
+        <v>163.1134541776195</v>
       </c>
       <c r="AB14" t="n">
-        <v>177.9191330827283</v>
+        <v>223.1790240634443</v>
       </c>
       <c r="AC14" t="n">
-        <v>160.9387807324341</v>
+        <v>201.8791312406209</v>
       </c>
       <c r="AD14" t="n">
-        <v>130034.6413969489</v>
+        <v>163113.4541776195</v>
       </c>
       <c r="AE14" t="n">
-        <v>177919.1330827283</v>
+        <v>223179.0240634443</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534622180207675e-06</v>
+        <v>5.721090068220576e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH14" t="n">
-        <v>160938.7807324341</v>
+        <v>201879.1312406209</v>
       </c>
     </row>
   </sheetData>
@@ -6933,28 +6933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.0633532234736</v>
+        <v>183.7529955572093</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.7455913899698</v>
+        <v>251.418955131287</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.0639068784295</v>
+        <v>227.4238829223499</v>
       </c>
       <c r="AD2" t="n">
-        <v>143063.3532234736</v>
+        <v>183752.9955572093</v>
       </c>
       <c r="AE2" t="n">
-        <v>195745.5913899698</v>
+        <v>251418.955131287</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689622394105851e-06</v>
+        <v>5.765099604988383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.837962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>177063.9068784295</v>
+        <v>227423.8829223499</v>
       </c>
     </row>
   </sheetData>
@@ -7230,28 +7230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.5184975528016</v>
+        <v>128.6532294780394</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.5338429148216</v>
+        <v>176.0290243516845</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4078059770288</v>
+        <v>159.2290613258963</v>
       </c>
       <c r="AD2" t="n">
-        <v>100518.4975528016</v>
+        <v>128653.2294780394</v>
       </c>
       <c r="AE2" t="n">
-        <v>137533.8429148216</v>
+        <v>176029.0243516845</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.949900755844092e-06</v>
+        <v>7.277425662999143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.740740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>124407.8059770288</v>
+        <v>159229.0613258963</v>
       </c>
     </row>
   </sheetData>
@@ -7527,28 +7527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0651757564659</v>
+        <v>233.0222839045974</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.423802670528</v>
+        <v>318.831369055746</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.4738818543406</v>
+        <v>288.4025506757972</v>
       </c>
       <c r="AD2" t="n">
-        <v>191065.1757564659</v>
+        <v>233022.2839045974</v>
       </c>
       <c r="AE2" t="n">
-        <v>261423.802670528</v>
+        <v>318831.369055746</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.672571324424777e-06</v>
+        <v>4.494407101308488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.523148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>236473.8818543406</v>
+        <v>288402.5506757972</v>
       </c>
     </row>
     <row r="3">
@@ -7633,28 +7633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.5082012342996</v>
+        <v>188.0613731999699</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.141425583205</v>
+        <v>257.3138674943162</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.7040684749836</v>
+        <v>232.7561931230148</v>
       </c>
       <c r="AD3" t="n">
-        <v>156508.2012342996</v>
+        <v>188061.3731999699</v>
       </c>
       <c r="AE3" t="n">
-        <v>214141.425583205</v>
+        <v>257313.8674943162</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066577549320473e-06</v>
+        <v>5.156999099863327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.558641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>193704.0684749836</v>
+        <v>232756.1931230148</v>
       </c>
     </row>
     <row r="4">
@@ -7739,28 +7739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.4834996336239</v>
+        <v>174.866079398702</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.3204542438886</v>
+        <v>239.2594843801529</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.5839056283955</v>
+        <v>216.4248949937757</v>
       </c>
       <c r="AD4" t="n">
-        <v>143483.4996336239</v>
+        <v>174866.079398702</v>
       </c>
       <c r="AE4" t="n">
-        <v>196320.4542438886</v>
+        <v>239259.4843801529</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346447050337654e-06</v>
+        <v>5.627649765503471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>177583.9056283955</v>
+        <v>216424.8949937757</v>
       </c>
     </row>
     <row r="5">
@@ -7845,28 +7845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.3150328229494</v>
+        <v>155.782863934048</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.0933123004644</v>
+        <v>213.1489870893779</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.8598453020184</v>
+        <v>192.8063469181109</v>
       </c>
       <c r="AD5" t="n">
-        <v>124315.0328229494</v>
+        <v>155782.863934048</v>
       </c>
       <c r="AE5" t="n">
-        <v>170093.3123004644</v>
+        <v>213148.9870893779</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.5550201868499e-06</v>
+        <v>5.978402831405121e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.655864197530864</v>
       </c>
       <c r="AH5" t="n">
-        <v>153859.8453020185</v>
+        <v>192806.3469181109</v>
       </c>
     </row>
     <row r="6">
@@ -7951,28 +7951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.9600657749918</v>
+        <v>149.2573046854983</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.398166024094</v>
+        <v>204.2204290381607</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.9945515825477</v>
+        <v>184.7299179159891</v>
       </c>
       <c r="AD6" t="n">
-        <v>117960.0657749918</v>
+        <v>149257.3046854983</v>
       </c>
       <c r="AE6" t="n">
-        <v>161398.166024094</v>
+        <v>204220.4290381607</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.714863717505337e-06</v>
+        <v>6.247208341929948e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.412808641975309</v>
       </c>
       <c r="AH6" t="n">
-        <v>145994.5515825477</v>
+        <v>184729.9179159891</v>
       </c>
     </row>
     <row r="7">
@@ -8057,28 +8057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.2374338205046</v>
+        <v>147.534672731011</v>
       </c>
       <c r="AB7" t="n">
-        <v>159.0411849868075</v>
+        <v>201.8634480008742</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.8625175074154</v>
+        <v>182.5978838408568</v>
       </c>
       <c r="AD7" t="n">
-        <v>116237.4338205046</v>
+        <v>147534.672731011</v>
       </c>
       <c r="AE7" t="n">
-        <v>159041.1849868075</v>
+        <v>201863.4480008742</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.757912545780977e-06</v>
+        <v>6.319602652883162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>143862.5175074154</v>
+        <v>182597.8838408568</v>
       </c>
     </row>
     <row r="8">
@@ -8163,28 +8163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.3300864299331</v>
+        <v>147.6273253404396</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.1679563745722</v>
+        <v>201.9902193886389</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.9771900118567</v>
+        <v>182.7125563452981</v>
       </c>
       <c r="AD8" t="n">
-        <v>116330.0864299331</v>
+        <v>147627.3253404396</v>
       </c>
       <c r="AE8" t="n">
-        <v>159167.9563745722</v>
+        <v>201990.2193886389</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.75655749791758e-06</v>
+        <v>6.317323897332577e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>143977.1900118567</v>
+        <v>182712.5563452981</v>
       </c>
     </row>
   </sheetData>
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.2795759260908</v>
+        <v>133.4208686487976</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.6799162722207</v>
+        <v>182.5523185985082</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.0627453157586</v>
+        <v>165.1297815253061</v>
       </c>
       <c r="AD2" t="n">
-        <v>104279.5759260908</v>
+        <v>133420.8686487976</v>
       </c>
       <c r="AE2" t="n">
-        <v>142679.9162722207</v>
+        <v>182552.3185985082</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.939710362595631e-06</v>
+        <v>7.038005049488871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>129062.7453157586</v>
+        <v>165129.7815253061</v>
       </c>
     </row>
     <row r="3">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.9392310875311</v>
+        <v>133.0805238102378</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.2142414491488</v>
+        <v>182.0866437754364</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.6415138442219</v>
+        <v>164.7085500537694</v>
       </c>
       <c r="AD3" t="n">
-        <v>103939.2310875311</v>
+        <v>133080.5238102378</v>
       </c>
       <c r="AE3" t="n">
-        <v>142214.2414491488</v>
+        <v>182086.6437754364</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.952501997540127e-06</v>
+        <v>7.060856371805689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.524691358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>128641.5138442219</v>
+        <v>164708.5500537694</v>
       </c>
     </row>
   </sheetData>
@@ -8863,28 +8863,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.6937218742517</v>
+        <v>339.0168092480856</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.530510068935</v>
+        <v>463.8577547792884</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.3542648974596</v>
+        <v>419.5878216916</v>
       </c>
       <c r="AD2" t="n">
-        <v>284693.7218742517</v>
+        <v>339016.8092480856</v>
       </c>
       <c r="AE2" t="n">
-        <v>389530.5100689351</v>
+        <v>463857.7547792884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.049084597142988e-06</v>
+        <v>3.354125762542843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.417438271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>352354.2648974597</v>
+        <v>419587.8216916</v>
       </c>
     </row>
     <row r="3">
@@ -8969,28 +8969,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.3238987868656</v>
+        <v>258.9188424464091</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.615657740032</v>
+        <v>354.2641829283335</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.4979528610829</v>
+        <v>320.4537065225562</v>
       </c>
       <c r="AD3" t="n">
-        <v>215323.8987868656</v>
+        <v>258918.8424464091</v>
       </c>
       <c r="AE3" t="n">
-        <v>294615.657740032</v>
+        <v>354264.1829283335</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.454439263548829e-06</v>
+        <v>4.017646698405852e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.862654320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>266497.9528610829</v>
+        <v>320453.7065225561</v>
       </c>
     </row>
     <row r="4">
@@ -9075,28 +9075,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.7107272684074</v>
+        <v>224.4070245216137</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.3070747288886</v>
+        <v>307.0435910895342</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.2728556671317</v>
+        <v>277.7397816944265</v>
       </c>
       <c r="AD4" t="n">
-        <v>191710.7272684074</v>
+        <v>224407.0245216137</v>
       </c>
       <c r="AE4" t="n">
-        <v>262307.0747288886</v>
+        <v>307043.5910895342</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754540786906676e-06</v>
+        <v>4.508879833570875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.006172839506173</v>
       </c>
       <c r="AH4" t="n">
-        <v>237272.8556671317</v>
+        <v>277739.7816944266</v>
       </c>
     </row>
     <row r="5">
@@ -9181,28 +9181,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>167.9497713356548</v>
+        <v>200.7313199348816</v>
       </c>
       <c r="AB5" t="n">
-        <v>229.7962865623194</v>
+        <v>274.6494475756142</v>
       </c>
       <c r="AC5" t="n">
-        <v>207.8648514939918</v>
+        <v>248.4372897719988</v>
       </c>
       <c r="AD5" t="n">
-        <v>167949.7713356548</v>
+        <v>200731.3199348816</v>
       </c>
       <c r="AE5" t="n">
-        <v>229796.2865623194</v>
+        <v>274649.4475756142</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.962295683807016e-06</v>
+        <v>4.848951713940994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.516203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>207864.8514939917</v>
+        <v>248437.2897719988</v>
       </c>
     </row>
     <row r="6">
@@ -9287,28 +9287,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.2691294368746</v>
+        <v>190.8800858355092</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.5508052366363</v>
+        <v>261.1705544750842</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.8835003158777</v>
+        <v>236.2448033112338</v>
       </c>
       <c r="AD6" t="n">
-        <v>158269.1294368746</v>
+        <v>190880.0858355092</v>
       </c>
       <c r="AE6" t="n">
-        <v>216550.8052366363</v>
+        <v>261170.5544750842</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.142686764525202e-06</v>
+        <v>5.14423204156311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH6" t="n">
-        <v>195883.5003158777</v>
+        <v>236244.8033112338</v>
       </c>
     </row>
     <row r="7">
@@ -9393,28 +9393,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.7043584095709</v>
+        <v>173.4005661542261</v>
       </c>
       <c r="AB7" t="n">
-        <v>192.5179106140836</v>
+        <v>237.2543045051808</v>
       </c>
       <c r="AC7" t="n">
-        <v>174.1442714257144</v>
+        <v>214.6110866717827</v>
       </c>
       <c r="AD7" t="n">
-        <v>140704.3584095709</v>
+        <v>173400.5661542261</v>
       </c>
       <c r="AE7" t="n">
-        <v>192517.9106140836</v>
+        <v>237254.3045051807</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.273953041786577e-06</v>
+        <v>5.359100477414588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.895061728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>174144.2714257144</v>
+        <v>214611.0866717827</v>
       </c>
     </row>
     <row r="8">
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.8833142728079</v>
+        <v>167.5795220174631</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.5533012198256</v>
+        <v>229.2896951109227</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.9397931736423</v>
+        <v>207.4066084197107</v>
       </c>
       <c r="AD8" t="n">
-        <v>134883.3142728079</v>
+        <v>167579.5220174631</v>
       </c>
       <c r="AE8" t="n">
-        <v>184553.3012198255</v>
+        <v>229289.6951109227</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.399166262817531e-06</v>
+        <v>5.564060727009197e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.679012345679013</v>
       </c>
       <c r="AH8" t="n">
-        <v>166939.7931736423</v>
+        <v>207406.6084197107</v>
       </c>
     </row>
     <row r="9">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.5441903111119</v>
+        <v>162.0698058551748</v>
       </c>
       <c r="AB9" t="n">
-        <v>177.2480762699115</v>
+        <v>221.7510583861618</v>
       </c>
       <c r="AC9" t="n">
-        <v>160.3317686399981</v>
+        <v>200.5874486034154</v>
       </c>
       <c r="AD9" t="n">
-        <v>129544.1903111119</v>
+        <v>162069.8058551748</v>
       </c>
       <c r="AE9" t="n">
-        <v>177248.0762699115</v>
+        <v>221751.0583861618</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.518226377101859e-06</v>
+        <v>5.758949018673266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH9" t="n">
-        <v>160331.7686399981</v>
+        <v>200587.4486034154</v>
       </c>
     </row>
     <row r="10">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.8477898130593</v>
+        <v>158.3734053571224</v>
       </c>
       <c r="AB10" t="n">
-        <v>172.1904980347977</v>
+        <v>216.6934801510481</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.7568785732864</v>
+        <v>196.0125585367037</v>
       </c>
       <c r="AD10" t="n">
-        <v>125847.7898130593</v>
+        <v>158373.4053571224</v>
       </c>
       <c r="AE10" t="n">
-        <v>172190.4980347978</v>
+        <v>216693.4801510481</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.597916613259393e-06</v>
+        <v>5.889393156749259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH10" t="n">
-        <v>155756.8785732864</v>
+        <v>196012.5585367037</v>
       </c>
     </row>
     <row r="11">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.3262611852464</v>
+        <v>157.8518767293094</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.4769195580052</v>
+        <v>215.9799016742556</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.1114030248051</v>
+        <v>195.3670829882223</v>
       </c>
       <c r="AD11" t="n">
-        <v>125326.2611852464</v>
+        <v>157851.8767293094</v>
       </c>
       <c r="AE11" t="n">
-        <v>171476.9195580052</v>
+        <v>215979.9016742556</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.603969669489814e-06</v>
+        <v>5.89930134300613e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH11" t="n">
-        <v>155111.4030248051</v>
+        <v>195367.0829882223</v>
       </c>
     </row>
     <row r="12">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.4435069600876</v>
+        <v>157.9691225041506</v>
       </c>
       <c r="AB12" t="n">
-        <v>171.6373403996614</v>
+        <v>216.1403225159118</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.2565135264857</v>
+        <v>195.512193489903</v>
       </c>
       <c r="AD12" t="n">
-        <v>125443.5069600876</v>
+        <v>157969.1225041506</v>
       </c>
       <c r="AE12" t="n">
-        <v>171637.3403996615</v>
+        <v>216140.3225159118</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.60161848235899e-06</v>
+        <v>5.895452708674949e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH12" t="n">
-        <v>155256.5135264857</v>
+        <v>195512.193489903</v>
       </c>
     </row>
   </sheetData>
@@ -10220,28 +10220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.185483334975</v>
+        <v>169.3719355205344</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.4397187289834</v>
+        <v>231.7421543415265</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.2644192573669</v>
+        <v>209.6250083833945</v>
       </c>
       <c r="AD2" t="n">
-        <v>139185.483334975</v>
+        <v>169371.9355205344</v>
       </c>
       <c r="AE2" t="n">
-        <v>190439.7187289834</v>
+        <v>231742.1543415265</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.330835666133375e-06</v>
+        <v>5.768311254013741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.292438271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>172264.4192573669</v>
+        <v>209625.0083833945</v>
       </c>
     </row>
     <row r="3">
@@ -10326,28 +10326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.845522436656</v>
+        <v>145.117225968236</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.1367104246304</v>
+        <v>198.5557906898228</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.139803324505</v>
+        <v>179.6059047012449</v>
       </c>
       <c r="AD3" t="n">
-        <v>114845.522436656</v>
+        <v>145117.225968236</v>
       </c>
       <c r="AE3" t="n">
-        <v>157136.7104246304</v>
+        <v>198555.7906898228</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.71429358568008e-06</v>
+        <v>6.432380230832901e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>142139.803324505</v>
+        <v>179605.9047012449</v>
       </c>
     </row>
     <row r="4">
@@ -10432,28 +10432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.2700837329591</v>
+        <v>139.3711950639469</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.5081492192403</v>
+        <v>190.6938177095859</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.239301293802</v>
+        <v>172.4942673878909</v>
       </c>
       <c r="AD4" t="n">
-        <v>109270.0837329591</v>
+        <v>139371.1950639469</v>
       </c>
       <c r="AE4" t="n">
-        <v>149508.1492192403</v>
+        <v>190693.8177095859</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.881845898499864e-06</v>
+        <v>6.722545819457197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.401234567901235</v>
       </c>
       <c r="AH4" t="n">
-        <v>135239.301293802</v>
+        <v>172494.2673878909</v>
       </c>
     </row>
     <row r="5">
@@ -10538,28 +10538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.3122783148856</v>
+        <v>139.4133896458734</v>
       </c>
       <c r="AB5" t="n">
-        <v>149.5658817077258</v>
+        <v>190.7515501980713</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.2915238746145</v>
+        <v>172.5464899687033</v>
       </c>
       <c r="AD5" t="n">
-        <v>109312.2783148856</v>
+        <v>139413.3896458734</v>
       </c>
       <c r="AE5" t="n">
-        <v>149565.8817077258</v>
+        <v>190751.5501980713</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.879346739488933e-06</v>
+        <v>6.718217798355798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.401234567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>135291.5238746145</v>
+        <v>172546.4899687033</v>
       </c>
     </row>
   </sheetData>
@@ -10835,28 +10835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.9705776421974</v>
+        <v>264.416225160445</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.7099369806683</v>
+        <v>361.7859444850861</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.7242868548968</v>
+        <v>327.2576017131909</v>
       </c>
       <c r="AD2" t="n">
-        <v>221970.5776421974</v>
+        <v>264416.225160445</v>
       </c>
       <c r="AE2" t="n">
-        <v>303709.9369806683</v>
+        <v>361785.9444850861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.451072743756313e-06</v>
+        <v>4.081742400467558e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.086419753086421</v>
       </c>
       <c r="AH2" t="n">
-        <v>274724.2868548968</v>
+        <v>327257.6017131909</v>
       </c>
     </row>
     <row r="3">
@@ -10941,28 +10941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.504232463118</v>
+        <v>212.9497904728113</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.2914129717842</v>
+        <v>291.3672980064778</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.026407944379</v>
+        <v>263.5596120213964</v>
       </c>
       <c r="AD3" t="n">
-        <v>170504.232463118</v>
+        <v>212949.7904728113</v>
       </c>
       <c r="AE3" t="n">
-        <v>233291.4129717842</v>
+        <v>291367.2980064778</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.85104976455789e-06</v>
+        <v>4.747819394378598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.952160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>211026.407944379</v>
+        <v>263559.6120213965</v>
       </c>
     </row>
     <row r="4">
@@ -11047,28 +11047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>154.9843597651333</v>
+        <v>186.7972825673115</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.0564384579517</v>
+        <v>255.5842829229709</v>
       </c>
       <c r="AC4" t="n">
-        <v>191.8180695946661</v>
+        <v>231.191677675671</v>
       </c>
       <c r="AD4" t="n">
-        <v>154984.3597651334</v>
+        <v>186797.2825673115</v>
       </c>
       <c r="AE4" t="n">
-        <v>212056.4384579517</v>
+        <v>255584.2829229709</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.134172063088554e-06</v>
+        <v>5.219299603758031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.323302469135803</v>
       </c>
       <c r="AH4" t="n">
-        <v>191818.0695946661</v>
+        <v>231191.677675671</v>
       </c>
     </row>
     <row r="5">
@@ -11153,28 +11153,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.595908073456</v>
+        <v>166.4940822216547</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.1600593784059</v>
+        <v>227.8045484960743</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.5840817816493</v>
+        <v>206.0632021133665</v>
       </c>
       <c r="AD5" t="n">
-        <v>134595.908073456</v>
+        <v>166494.0822216547</v>
       </c>
       <c r="AE5" t="n">
-        <v>184160.0593784059</v>
+        <v>227804.5484960743</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.343020986496697e-06</v>
+        <v>5.567093241518694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.925925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>166584.0817816493</v>
+        <v>206063.2021133665</v>
       </c>
     </row>
     <row r="6">
@@ -11259,28 +11259,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.2710564516099</v>
+        <v>159.1692305998087</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.1378742397544</v>
+        <v>217.7823633574228</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.5183999264023</v>
+        <v>196.9975202581194</v>
       </c>
       <c r="AD6" t="n">
-        <v>127271.0564516099</v>
+        <v>159169.2305998087</v>
       </c>
       <c r="AE6" t="n">
-        <v>174137.8742397543</v>
+        <v>217782.3633574228</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.513962751647287e-06</v>
+        <v>5.851760537747786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.640432098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>157518.3999264023</v>
+        <v>196997.5202581194</v>
       </c>
     </row>
     <row r="7">
@@ -11365,28 +11365,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.4307883470864</v>
+        <v>153.1583702946929</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.1469617647048</v>
+        <v>209.5580391075264</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.2901289226528</v>
+        <v>189.558113971719</v>
       </c>
       <c r="AD7" t="n">
-        <v>121430.7883470864</v>
+        <v>153158.3702946929</v>
       </c>
       <c r="AE7" t="n">
-        <v>166146.9617647048</v>
+        <v>209558.0391075264</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.65829759541927e-06</v>
+        <v>6.092119643037374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>150290.1289226528</v>
+        <v>189558.113971719</v>
       </c>
     </row>
     <row r="8">
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.2455554879332</v>
+        <v>150.9731374355397</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.1570297611431</v>
+        <v>206.5681071039647</v>
       </c>
       <c r="AC8" t="n">
-        <v>147.5855518331142</v>
+        <v>186.8535368821804</v>
       </c>
       <c r="AD8" t="n">
-        <v>119245.5554879332</v>
+        <v>150973.1374355397</v>
       </c>
       <c r="AE8" t="n">
-        <v>163157.0297611431</v>
+        <v>206568.1071039647</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.706169508015529e-06</v>
+        <v>6.171840171909223e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>147585.5518331142</v>
+        <v>186853.5368821803</v>
       </c>
     </row>
     <row r="9">
@@ -11577,28 +11577,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.3062776180133</v>
+        <v>151.0338595656198</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.2401124583899</v>
+        <v>206.6511898012115</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.660705234343</v>
+        <v>186.9286902834092</v>
       </c>
       <c r="AD9" t="n">
-        <v>119306.2776180132</v>
+        <v>151033.8595656198</v>
       </c>
       <c r="AE9" t="n">
-        <v>163240.1124583899</v>
+        <v>206651.1898012115</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70272807223876e-06</v>
+        <v>6.166109189683458e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.35108024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>147660.705234343</v>
+        <v>186928.6902834092</v>
       </c>
     </row>
   </sheetData>
@@ -11874,28 +11874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2651107928751</v>
+        <v>135.5259562850003</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1331009063411</v>
+        <v>185.4325923722714</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.9954856619931</v>
+        <v>167.7351660125919</v>
       </c>
       <c r="AD2" t="n">
-        <v>108265.1107928751</v>
+        <v>135525.9562850003</v>
       </c>
       <c r="AE2" t="n">
-        <v>148133.1009063411</v>
+        <v>185432.5923722714</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.87501626358157e-06</v>
+        <v>7.332364634359325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.033950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>133995.4856619931</v>
+        <v>167735.1660125919</v>
       </c>
     </row>
   </sheetData>
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.4640719815711</v>
+        <v>129.9539643184881</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.8276195640631</v>
+        <v>177.8087471447568</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.578106398694</v>
+        <v>160.8389298734549</v>
       </c>
       <c r="AD2" t="n">
-        <v>101464.0719815711</v>
+        <v>129953.9643184881</v>
       </c>
       <c r="AE2" t="n">
-        <v>138827.6195640631</v>
+        <v>177808.7471447568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964495424506515e-06</v>
+        <v>7.22244967502895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>125578.106398694</v>
+        <v>160838.9298734549</v>
       </c>
     </row>
   </sheetData>
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.2660192315249</v>
+        <v>354.073528577906</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.4689701975432</v>
+        <v>484.4590224219247</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.389826375198</v>
+        <v>438.2229332644839</v>
       </c>
       <c r="AD2" t="n">
-        <v>299266.0192315249</v>
+        <v>354073.528577906</v>
       </c>
       <c r="AE2" t="n">
-        <v>409468.9701975432</v>
+        <v>484459.0224219247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.964460631122315e-06</v>
+        <v>3.203130026558888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.76466049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>370389.826375198</v>
+        <v>438222.9332644839</v>
       </c>
     </row>
     <row r="3">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.0943704572515</v>
+        <v>279.8551265883387</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.0347334079786</v>
+        <v>382.9101305349905</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.2047518337129</v>
+        <v>346.3657250944737</v>
       </c>
       <c r="AD3" t="n">
-        <v>236094.3704572515</v>
+        <v>279855.1265883388</v>
       </c>
       <c r="AE3" t="n">
-        <v>323034.7334079787</v>
+        <v>382910.1305349905</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364353239664665e-06</v>
+        <v>3.855170592568686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.113425925925927</v>
       </c>
       <c r="AH3" t="n">
-        <v>292204.7518337129</v>
+        <v>346365.7250944737</v>
       </c>
     </row>
     <row r="4">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.486391735217</v>
+        <v>232.3709868515961</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.9460818904779</v>
+        <v>317.9402356946321</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.8964909171626</v>
+        <v>287.596465831954</v>
       </c>
       <c r="AD4" t="n">
-        <v>199486.391735217</v>
+        <v>232370.9868515962</v>
       </c>
       <c r="AE4" t="n">
-        <v>272946.0818904779</v>
+        <v>317940.2356946321</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.660382158135528e-06</v>
+        <v>4.33785734254038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.210648148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>246896.4909171626</v>
+        <v>287596.465831954</v>
       </c>
     </row>
     <row r="5">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.8884893361046</v>
+        <v>217.6491559586372</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.9219025282781</v>
+        <v>297.7971771855549</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.2149700765356</v>
+        <v>269.3758325560166</v>
       </c>
       <c r="AD5" t="n">
-        <v>173888.4893361046</v>
+        <v>217649.1559586372</v>
       </c>
       <c r="AE5" t="n">
-        <v>237921.9025282781</v>
+        <v>297797.1771855549</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.876412667164064e-06</v>
+        <v>4.69010355158086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.670524691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>215214.9700765356</v>
+        <v>269375.8325560166</v>
       </c>
     </row>
     <row r="6">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.0344074206344</v>
+        <v>196.8336616824419</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.4391129201261</v>
+        <v>269.3164996020827</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.0189589853672</v>
+        <v>243.6133108682199</v>
       </c>
       <c r="AD6" t="n">
-        <v>164034.4074206344</v>
+        <v>196833.6616824419</v>
       </c>
       <c r="AE6" t="n">
-        <v>224439.1129201262</v>
+        <v>269316.4996020827</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.04933651305618e-06</v>
+        <v>4.972062657459521e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.288580246913581</v>
       </c>
       <c r="AH6" t="n">
-        <v>203018.9589853672</v>
+        <v>243613.3108682199</v>
       </c>
     </row>
     <row r="7">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.5900668369621</v>
+        <v>189.3893210987697</v>
       </c>
       <c r="AB7" t="n">
-        <v>214.2534377124232</v>
+        <v>259.1308243943797</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.8053903237993</v>
+        <v>234.399742206652</v>
       </c>
       <c r="AD7" t="n">
-        <v>156590.0668369621</v>
+        <v>189389.3210987697</v>
       </c>
       <c r="AE7" t="n">
-        <v>214253.4377124232</v>
+        <v>259130.8243943797</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193273986850797e-06</v>
+        <v>5.206758347947941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.006944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>193805.3903237993</v>
+        <v>234399.742206652</v>
       </c>
     </row>
     <row r="8">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.4555670435276</v>
+        <v>172.3400726513558</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.8092591742771</v>
+        <v>235.8032905088829</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.5986912812152</v>
+        <v>213.2985554147801</v>
       </c>
       <c r="AD8" t="n">
-        <v>139455.5670435276</v>
+        <v>172340.0726513558</v>
       </c>
       <c r="AE8" t="n">
-        <v>190809.2591742771</v>
+        <v>235803.2905088829</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.317820920134222e-06</v>
+        <v>5.409837002412015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.78317901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>172598.6912812152</v>
+        <v>213298.5554147801</v>
       </c>
     </row>
     <row r="9">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>134.1885045195626</v>
+        <v>167.0730101273908</v>
       </c>
       <c r="AB9" t="n">
-        <v>183.6026318625929</v>
+        <v>228.5966631971987</v>
       </c>
       <c r="AC9" t="n">
-        <v>166.0798543655909</v>
+        <v>206.7797184991558</v>
       </c>
       <c r="AD9" t="n">
-        <v>134188.5045195626</v>
+        <v>167073.0101273908</v>
       </c>
       <c r="AE9" t="n">
-        <v>183602.6318625929</v>
+        <v>228596.6631971987</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.431877073807745e-06</v>
+        <v>5.595810029693685e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>166079.8543655909</v>
+        <v>206779.7184991558</v>
       </c>
     </row>
     <row r="10">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.3397368040085</v>
+        <v>163.0536502112445</v>
       </c>
       <c r="AB10" t="n">
-        <v>178.3365780785265</v>
+        <v>223.0971976382853</v>
       </c>
       <c r="AC10" t="n">
-        <v>161.3163853637211</v>
+        <v>201.805114214635</v>
       </c>
       <c r="AD10" t="n">
-        <v>130339.7368040085</v>
+        <v>163053.6502112445</v>
       </c>
       <c r="AE10" t="n">
-        <v>178336.5780785265</v>
+        <v>223097.1976382853</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.512372676596514e-06</v>
+        <v>5.727061263856295e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.462962962962964</v>
       </c>
       <c r="AH10" t="n">
-        <v>161316.3853637211</v>
+        <v>201805.114214635</v>
       </c>
     </row>
     <row r="11">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>127.4484249697924</v>
+        <v>160.1623383770284</v>
       </c>
       <c r="AB11" t="n">
-        <v>174.3805576712783</v>
+        <v>219.1411772310372</v>
       </c>
       <c r="AC11" t="n">
-        <v>157.7379219918299</v>
+        <v>198.2266508427438</v>
       </c>
       <c r="AD11" t="n">
-        <v>127448.4249697924</v>
+        <v>160162.3383770284</v>
       </c>
       <c r="AE11" t="n">
-        <v>174380.5576712783</v>
+        <v>219141.1772310372</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.569002998756123e-06</v>
+        <v>5.819399222912016e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH11" t="n">
-        <v>157737.9219918299</v>
+        <v>198226.6508427438</v>
       </c>
     </row>
     <row r="12">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>127.0359893154181</v>
+        <v>159.7499027226542</v>
       </c>
       <c r="AB12" t="n">
-        <v>173.8162450135868</v>
+        <v>218.5768645733456</v>
       </c>
       <c r="AC12" t="n">
-        <v>157.2274665421705</v>
+        <v>197.7161953930844</v>
       </c>
       <c r="AD12" t="n">
-        <v>127035.9893154181</v>
+        <v>159749.9027226542</v>
       </c>
       <c r="AE12" t="n">
-        <v>173816.2450135867</v>
+        <v>218576.8645733456</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.577952478992057e-06</v>
+        <v>5.833991701077098e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH12" t="n">
-        <v>157227.4665421705</v>
+        <v>197716.1953930844</v>
       </c>
     </row>
     <row r="13">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.1207175455856</v>
+        <v>159.8346309528216</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.9321739160476</v>
+        <v>218.6927934758064</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.3323313528877</v>
+        <v>197.8210602038016</v>
       </c>
       <c r="AD13" t="n">
-        <v>127120.7175455856</v>
+        <v>159834.6309528216</v>
       </c>
       <c r="AE13" t="n">
-        <v>173932.1739160476</v>
+        <v>218692.7934758065</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.577505004980261e-06</v>
+        <v>5.833262077168844e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH13" t="n">
-        <v>157332.3313528877</v>
+        <v>197821.0602038016</v>
       </c>
     </row>
   </sheetData>
@@ -13931,28 +13931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6380989025409</v>
+        <v>134.1313896583141</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.275195576174</v>
+        <v>183.524484789703</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2194576124591</v>
+        <v>166.0091655396574</v>
       </c>
       <c r="AD2" t="n">
-        <v>107638.0989025409</v>
+        <v>134131.3896583141</v>
       </c>
       <c r="AE2" t="n">
-        <v>147275.195576174</v>
+        <v>183524.484789703</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.694919265450953e-06</v>
+        <v>7.240851255568538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>133219.4576124591</v>
+        <v>166009.1655396574</v>
       </c>
     </row>
   </sheetData>
@@ -14228,28 +14228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7083673975684</v>
+        <v>177.3208277221878</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.73286058964</v>
+        <v>242.6181793321975</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.575198105361</v>
+        <v>219.4630408135562</v>
       </c>
       <c r="AD2" t="n">
-        <v>146708.3673975684</v>
+        <v>177320.8277221878</v>
       </c>
       <c r="AE2" t="n">
-        <v>200732.86058964</v>
+        <v>242618.1793321975</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184886564359913e-06</v>
+        <v>5.479537481329448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.52391975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>181575.198105361</v>
+        <v>219463.0408135562</v>
       </c>
     </row>
     <row r="3">
@@ -14334,28 +14334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8442164413999</v>
+        <v>151.3713359114477</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.3443882056188</v>
+        <v>207.1129398259787</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.5641518576267</v>
+        <v>187.346371533883</v>
       </c>
       <c r="AD3" t="n">
-        <v>120844.2164413999</v>
+        <v>151371.3359114477</v>
       </c>
       <c r="AE3" t="n">
-        <v>165344.3882056188</v>
+        <v>207112.9398259787</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.565869056024084e-06</v>
+        <v>6.135010698543911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.825617283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>149564.1518576267</v>
+        <v>187346.371533883</v>
       </c>
     </row>
     <row r="4">
@@ -14440,28 +14440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.8840955619817</v>
+        <v>142.2406228314373</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.0847555257701</v>
+        <v>194.6198953712832</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.4745613142363</v>
+        <v>176.0456457078417</v>
       </c>
       <c r="AD4" t="n">
-        <v>111884.0955619817</v>
+        <v>142240.6228314374</v>
       </c>
       <c r="AE4" t="n">
-        <v>153084.7555257701</v>
+        <v>194619.8953712832</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.820593217706277e-06</v>
+        <v>6.573258831760647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.435956790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>138474.5613142363</v>
+        <v>176045.6457078417</v>
       </c>
     </row>
     <row r="5">
@@ -14546,28 +14546,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.5292650838667</v>
+        <v>140.8857923533223</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.2310166947118</v>
+        <v>192.7661565402248</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.7977407154748</v>
+        <v>174.3688251090801</v>
       </c>
       <c r="AD5" t="n">
-        <v>110529.2650838667</v>
+        <v>140885.7923533223</v>
       </c>
       <c r="AE5" t="n">
-        <v>151231.0166947118</v>
+        <v>192766.1565402248</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.863935629491135e-06</v>
+        <v>6.647828636715091e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH5" t="n">
-        <v>136797.7407154748</v>
+        <v>174368.8251090801</v>
       </c>
     </row>
   </sheetData>
@@ -14843,28 +14843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.9342866068723</v>
+        <v>142.7868025641869</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9946497120906</v>
+        <v>195.3672025773799</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.7249848975139</v>
+        <v>176.721630963041</v>
       </c>
       <c r="AD2" t="n">
-        <v>116934.2866068723</v>
+        <v>142786.8025641869</v>
       </c>
       <c r="AE2" t="n">
-        <v>159994.6497120906</v>
+        <v>195367.2025773799</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.526858693852372e-06</v>
+        <v>7.070153877454702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>144724.9848975139</v>
+        <v>176721.630963041</v>
       </c>
     </row>
   </sheetData>
@@ -15140,28 +15140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.5357969219993</v>
+        <v>276.2571982574968</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.5339802207503</v>
+        <v>377.9872862633372</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0381056173346</v>
+        <v>341.9127101708518</v>
       </c>
       <c r="AD2" t="n">
-        <v>233535.7969219993</v>
+        <v>276257.1982574968</v>
       </c>
       <c r="AE2" t="n">
-        <v>319533.9802207503</v>
+        <v>377987.2862633372</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.343892797713946e-06</v>
+        <v>3.885443474009286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.395061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>289038.1056173346</v>
+        <v>341912.7101708518</v>
       </c>
     </row>
     <row r="3">
@@ -15246,28 +15246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.6406859560853</v>
+        <v>221.7457649757724</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.4747528815935</v>
+        <v>303.402338372431</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.7108466417529</v>
+        <v>274.4460450261121</v>
       </c>
       <c r="AD3" t="n">
-        <v>189640.6859560853</v>
+        <v>221745.7649757724</v>
       </c>
       <c r="AE3" t="n">
-        <v>259474.7528815935</v>
+        <v>303402.3383724309</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738920019753528e-06</v>
+        <v>4.540275445602311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.183641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>234710.8466417529</v>
+        <v>274446.0450261121</v>
       </c>
     </row>
     <row r="4">
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.6275267179237</v>
+        <v>193.8178570836314</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.1459125585966</v>
+        <v>265.1901427020832</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.0400570443053</v>
+        <v>239.8807676793768</v>
       </c>
       <c r="AD4" t="n">
-        <v>161627.5267179237</v>
+        <v>193817.8570836314</v>
       </c>
       <c r="AE4" t="n">
-        <v>221145.9125585966</v>
+        <v>265190.1427020832</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023815039780785e-06</v>
+        <v>5.012542563544854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.508487654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>200040.0570443053</v>
+        <v>239880.7676793768</v>
       </c>
     </row>
     <row r="5">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.5891019112822</v>
+        <v>182.6088400763976</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.0426527572242</v>
+        <v>249.853471125864</v>
       </c>
       <c r="AC5" t="n">
-        <v>186.3782311608128</v>
+        <v>226.0078065132333</v>
       </c>
       <c r="AD5" t="n">
-        <v>150589.1019112822</v>
+        <v>182608.8400763976</v>
       </c>
       <c r="AE5" t="n">
-        <v>206042.6527572242</v>
+        <v>249853.471125864</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.245150669485039e-06</v>
+        <v>5.379448029033249e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.064814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>186378.2311608128</v>
+        <v>226007.8065132333</v>
       </c>
     </row>
     <row r="6">
@@ -15564,28 +15564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.6238434232498</v>
+        <v>164.7288329343859</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.461793522643</v>
+        <v>225.389256543932</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.1433346321196</v>
+        <v>203.8784222352523</v>
       </c>
       <c r="AD6" t="n">
-        <v>132623.8434232498</v>
+        <v>164728.8329343859</v>
       </c>
       <c r="AE6" t="n">
-        <v>181461.793522643</v>
+        <v>225389.256543932</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.403845102305951e-06</v>
+        <v>5.642513920513866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.78317901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>164143.3346321196</v>
+        <v>203878.4222352523</v>
       </c>
     </row>
     <row r="7">
@@ -15670,28 +15670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.5245239414587</v>
+        <v>157.6295134525948</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.7481914077903</v>
+        <v>215.6756544290793</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.3567850699792</v>
+        <v>195.0918726731119</v>
       </c>
       <c r="AD7" t="n">
-        <v>125524.5239414587</v>
+        <v>157629.5134525948</v>
       </c>
       <c r="AE7" t="n">
-        <v>171748.1914077903</v>
+        <v>215675.6544290793</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.572741684456398e-06</v>
+        <v>5.922491794731906e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>155356.7850699792</v>
+        <v>195091.8726731119</v>
       </c>
     </row>
     <row r="8">
@@ -15776,28 +15776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.5761550487983</v>
+        <v>153.5105523593421</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.3458588991132</v>
+        <v>210.0399101455553</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.4700435937072</v>
+        <v>189.9939959141888</v>
       </c>
       <c r="AD8" t="n">
-        <v>121576.1550487983</v>
+        <v>153510.5523593421</v>
       </c>
       <c r="AE8" t="n">
-        <v>166345.8588991132</v>
+        <v>210039.9101455553</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.662469587809656e-06</v>
+        <v>6.071232682907544e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH8" t="n">
-        <v>150470.0435937072</v>
+        <v>189993.9959141888</v>
       </c>
     </row>
     <row r="9">
@@ -15882,28 +15882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.3697138232441</v>
+        <v>152.3041111337879</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.6951527898803</v>
+        <v>208.3892040363224</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.9768785587584</v>
+        <v>188.50083087924</v>
       </c>
       <c r="AD9" t="n">
-        <v>120369.7138232441</v>
+        <v>152304.1111337879</v>
       </c>
       <c r="AE9" t="n">
-        <v>164695.1527898803</v>
+        <v>208389.2040363224</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693892207744622e-06</v>
+        <v>6.123321589738806e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.327932098765433</v>
       </c>
       <c r="AH9" t="n">
-        <v>148976.8785587584</v>
+        <v>188500.83087924</v>
       </c>
     </row>
     <row r="10">
@@ -15988,28 +15988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.4809863211625</v>
+        <v>152.4153836317063</v>
       </c>
       <c r="AB10" t="n">
-        <v>164.8474007305283</v>
+        <v>208.5414519769704</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.1145961696323</v>
+        <v>188.638548490114</v>
       </c>
       <c r="AD10" t="n">
-        <v>120480.9863211625</v>
+        <v>152415.3836317063</v>
       </c>
       <c r="AE10" t="n">
-        <v>164847.4007305283</v>
+        <v>208541.4519769704</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.692769971318373e-06</v>
+        <v>6.121461271637691e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.327932098765433</v>
       </c>
       <c r="AH10" t="n">
-        <v>149114.5961696323</v>
+        <v>188638.548490114</v>
       </c>
     </row>
   </sheetData>
@@ -16285,28 +16285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.4936889185121</v>
+        <v>383.5231584513715</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.459557297062</v>
+        <v>524.7533052407755</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.5637679690802</v>
+        <v>474.6715862844846</v>
       </c>
       <c r="AD2" t="n">
-        <v>328493.6889185121</v>
+        <v>383523.1584513715</v>
       </c>
       <c r="AE2" t="n">
-        <v>449459.557297062</v>
+        <v>524753.3052407755</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.870925277918509e-06</v>
+        <v>3.039213211666884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1929012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>406563.7679690802</v>
+        <v>474671.5862844846</v>
       </c>
     </row>
     <row r="3">
@@ -16391,28 +16391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.4359099917687</v>
+        <v>290.4424353488551</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.1844840356226</v>
+        <v>397.3961534602267</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.0040701207588</v>
+        <v>359.4692223229863</v>
       </c>
       <c r="AD3" t="n">
-        <v>246435.9099917687</v>
+        <v>290442.4353488551</v>
       </c>
       <c r="AE3" t="n">
-        <v>337184.4840356226</v>
+        <v>397396.1534602267</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.278322902165828e-06</v>
+        <v>3.7010078095739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>305004.0701207588</v>
+        <v>359469.2223229863</v>
       </c>
     </row>
     <row r="4">
@@ -16497,28 +16497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.7617926207485</v>
+        <v>251.6829771232597</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.2688504669772</v>
+        <v>344.3637527691896</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.1386303523299</v>
+        <v>311.4981595225634</v>
       </c>
       <c r="AD4" t="n">
-        <v>207761.7926207485</v>
+        <v>251682.9771232597</v>
       </c>
       <c r="AE4" t="n">
-        <v>284268.8504669772</v>
+        <v>344363.7527691896</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.569822500347399e-06</v>
+        <v>4.174532562510402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.418981481481483</v>
       </c>
       <c r="AH4" t="n">
-        <v>257138.6303523299</v>
+        <v>311498.1595225633</v>
       </c>
     </row>
     <row r="5">
@@ -16603,28 +16603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.6413075006105</v>
+        <v>224.6477433491423</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.1614062542623</v>
+        <v>307.3729532091238</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.5726685346396</v>
+        <v>278.0377099555852</v>
       </c>
       <c r="AD5" t="n">
-        <v>180641.3075006105</v>
+        <v>224647.7433491423</v>
       </c>
       <c r="AE5" t="n">
-        <v>247161.4062542623</v>
+        <v>307372.9532091238</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.789163839230039e-06</v>
+        <v>4.530840269111317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.83641975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>223572.6685346396</v>
+        <v>278037.7099555852</v>
       </c>
     </row>
     <row r="6">
@@ -16709,28 +16709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.2115661690371</v>
+        <v>202.1951473503441</v>
       </c>
       <c r="AB6" t="n">
-        <v>231.5227299198116</v>
+        <v>276.6523208249567</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.4265255205238</v>
+        <v>250.249011609475</v>
       </c>
       <c r="AD6" t="n">
-        <v>169211.5661690371</v>
+        <v>202195.1473503441</v>
       </c>
       <c r="AE6" t="n">
-        <v>231522.7299198116</v>
+        <v>276652.3208249568</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.975391456379608e-06</v>
+        <v>4.833356591434942e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.40817901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>209426.5255205238</v>
+        <v>250249.011609475</v>
       </c>
     </row>
     <row r="7">
@@ -16815,28 +16815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>161.8302980596877</v>
+        <v>194.8138792409947</v>
       </c>
       <c r="AB7" t="n">
-        <v>221.4233532540383</v>
+        <v>266.5529441591834</v>
       </c>
       <c r="AC7" t="n">
-        <v>200.2910191891646</v>
+        <v>241.1135052781157</v>
       </c>
       <c r="AD7" t="n">
-        <v>161830.2980596877</v>
+        <v>194813.8792409947</v>
       </c>
       <c r="AE7" t="n">
-        <v>221423.3532540383</v>
+        <v>266552.9441591834</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.111553103207385e-06</v>
+        <v>5.054543552157232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.126543209876544</v>
       </c>
       <c r="AH7" t="n">
-        <v>200291.0191891646</v>
+        <v>241113.5052781157</v>
       </c>
     </row>
     <row r="8">
@@ -16921,28 +16921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.2946671161655</v>
+        <v>177.3634996434931</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.4303293796852</v>
+        <v>242.6765649374796</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.5878558389516</v>
+        <v>219.5158541786149</v>
       </c>
       <c r="AD8" t="n">
-        <v>144294.6671161655</v>
+        <v>177363.4996434931</v>
       </c>
       <c r="AE8" t="n">
-        <v>197430.3293796852</v>
+        <v>242676.5649374796</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.23595196530013e-06</v>
+        <v>5.256622528613857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.891203703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>178587.8558389516</v>
+        <v>219515.8541786149</v>
       </c>
     </row>
     <row r="9">
@@ -17027,28 +17027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>138.8223823398176</v>
+        <v>171.8912148671452</v>
       </c>
       <c r="AB9" t="n">
-        <v>189.942907928524</v>
+        <v>235.1891434863184</v>
       </c>
       <c r="AC9" t="n">
-        <v>171.8150233824248</v>
+        <v>212.7430217220881</v>
       </c>
       <c r="AD9" t="n">
-        <v>138822.3823398176</v>
+        <v>171891.2148671451</v>
       </c>
       <c r="AE9" t="n">
-        <v>189942.907928524</v>
+        <v>235189.1434863184</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.347006491769101e-06</v>
+        <v>5.437024380063215e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.698302469135802</v>
       </c>
       <c r="AH9" t="n">
-        <v>171815.0233824248</v>
+        <v>212743.0217220881</v>
       </c>
     </row>
     <row r="10">
@@ -17133,28 +17133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.9364166632745</v>
+        <v>168.0052491906021</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.6259582531742</v>
+        <v>229.8721938109686</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.005515921703</v>
+        <v>207.9335142613663</v>
       </c>
       <c r="AD10" t="n">
-        <v>134936.4166632745</v>
+        <v>168005.2491906021</v>
       </c>
       <c r="AE10" t="n">
-        <v>184625.9582531742</v>
+        <v>229872.1938109686</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.426182883136832e-06</v>
+        <v>5.565641988439662e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>167005.515921703</v>
+        <v>207933.5142613663</v>
       </c>
     </row>
     <row r="11">
@@ -17239,28 +17239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>130.8984789754807</v>
+        <v>163.796719302216</v>
       </c>
       <c r="AB11" t="n">
-        <v>179.1010737674992</v>
+        <v>224.1138975504468</v>
       </c>
       <c r="AC11" t="n">
-        <v>162.007918657115</v>
+        <v>202.7247817141273</v>
       </c>
       <c r="AD11" t="n">
-        <v>130898.4789754807</v>
+        <v>163796.719302216</v>
       </c>
       <c r="AE11" t="n">
-        <v>179101.0737674992</v>
+        <v>224113.8975504467</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.509708539448608e-06</v>
+        <v>5.701324733855512e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.432098765432099</v>
       </c>
       <c r="AH11" t="n">
-        <v>162007.918657115</v>
+        <v>202724.7817141273</v>
       </c>
     </row>
     <row r="12">
@@ -17345,28 +17345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>127.5602020816846</v>
+        <v>160.45844240842</v>
       </c>
       <c r="AB12" t="n">
-        <v>174.5334960470272</v>
+        <v>219.5463198299747</v>
       </c>
       <c r="AC12" t="n">
-        <v>157.8762641436478</v>
+        <v>198.5931272006601</v>
       </c>
       <c r="AD12" t="n">
-        <v>127560.2020816846</v>
+        <v>160458.4424084199</v>
       </c>
       <c r="AE12" t="n">
-        <v>174533.4960470272</v>
+        <v>219546.3198299748</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.584288548545928e-06</v>
+        <v>5.822475776951678e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.320216049382716</v>
       </c>
       <c r="AH12" t="n">
-        <v>157876.2641436478</v>
+        <v>198593.1272006601</v>
       </c>
     </row>
     <row r="13">
@@ -17451,28 +17451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.3806515357838</v>
+        <v>160.2788918625191</v>
       </c>
       <c r="AB13" t="n">
-        <v>174.2878270689148</v>
+        <v>219.3006508518624</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.6540414680078</v>
+        <v>198.3709045250201</v>
       </c>
       <c r="AD13" t="n">
-        <v>127380.6515357838</v>
+        <v>160278.8918625191</v>
       </c>
       <c r="AE13" t="n">
-        <v>174287.8270689148</v>
+        <v>219300.6508518624</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.588934354281612e-06</v>
+        <v>5.830022627880133e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH13" t="n">
-        <v>157654.0414680078</v>
+        <v>198370.9045250201</v>
       </c>
     </row>
     <row r="14">
@@ -17557,28 +17557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.4463868871472</v>
+        <v>160.3446272138825</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.3777690766891</v>
+        <v>219.3905928596367</v>
       </c>
       <c r="AC14" t="n">
-        <v>157.7353995367946</v>
+        <v>198.4522625938068</v>
       </c>
       <c r="AD14" t="n">
-        <v>127446.3868871471</v>
+        <v>160344.6272138825</v>
       </c>
       <c r="AE14" t="n">
-        <v>174377.7690766891</v>
+        <v>219390.5928596367</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.588786083885793e-06</v>
+        <v>5.829781770935608e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH14" t="n">
-        <v>157735.3995367946</v>
+        <v>198452.2625938068</v>
       </c>
     </row>
   </sheetData>
@@ -17854,28 +17854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.3541589172661</v>
+        <v>137.7969141502105</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.2549404786587</v>
+        <v>188.5398171110406</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.1056970365317</v>
+        <v>170.5458415833114</v>
       </c>
       <c r="AD2" t="n">
-        <v>108354.1589172661</v>
+        <v>137796.9141502105</v>
       </c>
       <c r="AE2" t="n">
-        <v>148254.9404786587</v>
+        <v>188539.8171110406</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.833478549085325e-06</v>
+        <v>6.789375364336816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.632716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>134105.6970365317</v>
+        <v>170545.8415833114</v>
       </c>
     </row>
     <row r="3">
@@ -17960,28 +17960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.208204378413</v>
+        <v>134.4803674107653</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.9505066888832</v>
+        <v>184.0019715464182</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.2120723663402</v>
+        <v>166.4410816304688</v>
       </c>
       <c r="AD3" t="n">
-        <v>105208.204378413</v>
+        <v>134480.3674107653</v>
       </c>
       <c r="AE3" t="n">
-        <v>143950.5066888832</v>
+        <v>184001.9715464182</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.943136052701616e-06</v>
+        <v>6.983586951550411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.478395061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>130212.0723663402</v>
+        <v>166441.0816304688</v>
       </c>
     </row>
   </sheetData>
@@ -18257,28 +18257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.6763458384206</v>
+        <v>313.0147038752413</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.9830736568385</v>
+        <v>428.2805270762344</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.7678469780254</v>
+        <v>387.4060346675727</v>
       </c>
       <c r="AD2" t="n">
-        <v>269676.3458384206</v>
+        <v>313014.7038752413</v>
       </c>
       <c r="AE2" t="n">
-        <v>368983.0736568385</v>
+        <v>428280.5270762343</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.147284916153353e-06</v>
+        <v>3.529097253803367e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.043209876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>333767.8469780255</v>
+        <v>387406.0346675727</v>
       </c>
     </row>
     <row r="3">
@@ -18363,28 +18363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.9686275698677</v>
+        <v>249.3068960981368</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.8153629355045</v>
+        <v>341.1126938853214</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.9193002273688</v>
+        <v>308.5573771356808</v>
       </c>
       <c r="AD3" t="n">
-        <v>205968.6275698677</v>
+        <v>249306.8960981368</v>
       </c>
       <c r="AE3" t="n">
-        <v>281815.3629355045</v>
+        <v>341112.6938853214</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549265270996616e-06</v>
+        <v>4.189758424423236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.619598765432098</v>
       </c>
       <c r="AH3" t="n">
-        <v>254919.3002273688</v>
+        <v>308557.3771356808</v>
       </c>
     </row>
     <row r="4">
@@ -18469,28 +18469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.6484266798749</v>
+        <v>217.9013543535723</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.9616823280936</v>
+        <v>298.1422461557129</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.155514751597</v>
+        <v>269.6879686279701</v>
       </c>
       <c r="AD4" t="n">
-        <v>174648.4266798749</v>
+        <v>217901.3543535724</v>
       </c>
       <c r="AE4" t="n">
-        <v>238961.6823280936</v>
+        <v>298142.2461557129</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.834099941967583e-06</v>
+        <v>4.657888781764151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.851851851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>216155.514751597</v>
+        <v>269687.9686279701</v>
       </c>
     </row>
     <row r="5">
@@ -18575,28 +18575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.983447352343</v>
+        <v>194.4018974025242</v>
       </c>
       <c r="AB5" t="n">
-        <v>221.6328988727191</v>
+        <v>265.9892524324325</v>
       </c>
       <c r="AC5" t="n">
-        <v>200.4805660680976</v>
+        <v>240.6036114986193</v>
       </c>
       <c r="AD5" t="n">
-        <v>161983.447352343</v>
+        <v>194401.8974025242</v>
       </c>
       <c r="AE5" t="n">
-        <v>221632.8988727191</v>
+        <v>265989.2524324325</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.052885993582965e-06</v>
+        <v>5.017467172185436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.361882716049383</v>
       </c>
       <c r="AH5" t="n">
-        <v>200480.5660680976</v>
+        <v>240603.6114986193</v>
       </c>
     </row>
     <row r="6">
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.3991344456963</v>
+        <v>184.5667212648221</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.4685338380653</v>
+        <v>252.5323305434869</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.0041685034077</v>
+        <v>228.430999347842</v>
       </c>
       <c r="AD6" t="n">
-        <v>141399.1344456963</v>
+        <v>184566.7212648221</v>
       </c>
       <c r="AE6" t="n">
-        <v>193468.5338380653</v>
+        <v>252532.3305434869</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.244588083907717e-06</v>
+        <v>5.332532637147297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.987654320987654</v>
       </c>
       <c r="AH6" t="n">
-        <v>175004.1685034077</v>
+        <v>228430.999347842</v>
       </c>
     </row>
     <row r="7">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.4672447218918</v>
+        <v>167.9709461180936</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.3522606214551</v>
+        <v>229.8252588338177</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.6625010113272</v>
+        <v>207.8910586925611</v>
       </c>
       <c r="AD7" t="n">
-        <v>135467.2447218918</v>
+        <v>167970.9461180936</v>
       </c>
       <c r="AE7" t="n">
-        <v>185352.2606214551</v>
+        <v>229825.2588338177</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.374923354876935e-06</v>
+        <v>5.546740748698311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.756172839506173</v>
       </c>
       <c r="AH7" t="n">
-        <v>167662.5010113271</v>
+        <v>207891.0586925611</v>
       </c>
     </row>
     <row r="8">
@@ -18893,28 +18893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.2905369088612</v>
+        <v>162.794238305063</v>
       </c>
       <c r="AB8" t="n">
-        <v>178.2692606114397</v>
+        <v>222.7422588238024</v>
       </c>
       <c r="AC8" t="n">
-        <v>161.2554925812125</v>
+        <v>201.4840502624464</v>
       </c>
       <c r="AD8" t="n">
-        <v>130290.5369088612</v>
+        <v>162794.238305063</v>
       </c>
       <c r="AE8" t="n">
-        <v>178269.2606114397</v>
+        <v>222742.2588238024</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.487890658104021e-06</v>
+        <v>5.732404326265121e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>161255.4925812125</v>
+        <v>201484.0502624464</v>
       </c>
     </row>
     <row r="9">
@@ -18999,28 +18999,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>125.7139445595036</v>
+        <v>158.0470537551133</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.0073650540471</v>
+        <v>216.246951491563</v>
       </c>
       <c r="AC9" t="n">
-        <v>155.5912235471898</v>
+        <v>195.6086459457727</v>
       </c>
       <c r="AD9" t="n">
-        <v>125713.9445595036</v>
+        <v>158047.0537551133</v>
       </c>
       <c r="AE9" t="n">
-        <v>172007.3650540471</v>
+        <v>216246.9514915629</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.586510509718041e-06</v>
+        <v>5.894487636627591e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>155591.2235471898</v>
+        <v>195608.6459457727</v>
       </c>
     </row>
     <row r="10">
@@ -19105,28 +19105,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>123.8069673890388</v>
+        <v>156.1400765846485</v>
       </c>
       <c r="AB10" t="n">
-        <v>169.3981547595234</v>
+        <v>213.6377411970392</v>
       </c>
       <c r="AC10" t="n">
-        <v>153.2310326211249</v>
+        <v>193.2484550197078</v>
       </c>
       <c r="AD10" t="n">
-        <v>123806.9673890389</v>
+        <v>156140.0765846485</v>
       </c>
       <c r="AE10" t="n">
-        <v>169398.1547595233</v>
+        <v>213637.7411970392</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.633328509718571e-06</v>
+        <v>5.97143377171544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>153231.0326211249</v>
+        <v>193248.4550197078</v>
       </c>
     </row>
     <row r="11">
@@ -19211,28 +19211,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.7584774645194</v>
+        <v>156.091586660129</v>
       </c>
       <c r="AB11" t="n">
-        <v>169.3318087055713</v>
+        <v>213.5713951430872</v>
       </c>
       <c r="AC11" t="n">
-        <v>153.1710185414448</v>
+        <v>193.1884409400277</v>
       </c>
       <c r="AD11" t="n">
-        <v>123758.4774645194</v>
+        <v>156091.586660129</v>
       </c>
       <c r="AE11" t="n">
-        <v>169331.8087055713</v>
+        <v>213571.3951430872</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.633429193589541e-06</v>
+        <v>5.971599247274769e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>153171.0185414448</v>
+        <v>193188.4409400277</v>
       </c>
     </row>
   </sheetData>
@@ -19508,28 +19508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.800018169559</v>
+        <v>161.7213419050149</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.3345994659386</v>
+        <v>221.2742746364087</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.1237183941599</v>
+        <v>200.1561684255684</v>
       </c>
       <c r="AD2" t="n">
-        <v>131800.018169559</v>
+        <v>161721.3419050149</v>
       </c>
       <c r="AE2" t="n">
-        <v>180334.5994659386</v>
+        <v>221274.2746364087</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.492457341833946e-06</v>
+        <v>6.090540645562058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH2" t="n">
-        <v>163123.7183941599</v>
+        <v>200156.1684255684</v>
       </c>
     </row>
     <row r="3">
@@ -19614,28 +19614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.171675534687</v>
+        <v>139.0076584155713</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.3735027809012</v>
+        <v>190.1964108291736</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.1175053225605</v>
+        <v>172.0443323220301</v>
       </c>
       <c r="AD3" t="n">
-        <v>109171.675534687</v>
+        <v>139007.6584155713</v>
       </c>
       <c r="AE3" t="n">
-        <v>149373.5027809012</v>
+        <v>190196.4108291736</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.865297647901774e-06</v>
+        <v>6.740741583225472e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.474537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>135117.5053225605</v>
+        <v>172044.3323220301</v>
       </c>
     </row>
     <row r="4">
@@ -19720,28 +19720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.007677356666</v>
+        <v>137.8436602375504</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.7808691217583</v>
+        <v>188.6037771700308</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.6768703845703</v>
+        <v>170.60369738404</v>
       </c>
       <c r="AD4" t="n">
-        <v>108007.677356666</v>
+        <v>137843.6602375504</v>
       </c>
       <c r="AE4" t="n">
-        <v>147780.8691217583</v>
+        <v>188603.7771700308</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.898972838829348e-06</v>
+        <v>6.799468175712283e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>133676.8703845704</v>
+        <v>170603.69738404</v>
       </c>
     </row>
   </sheetData>
@@ -20017,28 +20017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.3307772082729</v>
+        <v>204.3431426883716</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.1588161904567</v>
+        <v>279.5913028093109</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.5247116277971</v>
+        <v>252.9075012781304</v>
       </c>
       <c r="AD2" t="n">
-        <v>173330.7772082729</v>
+        <v>204343.1426883716</v>
       </c>
       <c r="AE2" t="n">
-        <v>237158.8161904567</v>
+        <v>279591.3028093109</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.910861395277319e-06</v>
+        <v>4.948271450619079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.017746913580248</v>
       </c>
       <c r="AH2" t="n">
-        <v>214524.7116277971</v>
+        <v>252907.5012781304</v>
       </c>
     </row>
     <row r="3">
@@ -20123,28 +20123,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>143.2599837806417</v>
+        <v>174.1870084061688</v>
       </c>
       <c r="AB3" t="n">
-        <v>196.0146299930151</v>
+        <v>238.3303494896716</v>
       </c>
       <c r="AC3" t="n">
-        <v>177.3072688147982</v>
+        <v>215.5844354331927</v>
       </c>
       <c r="AD3" t="n">
-        <v>143259.9837806417</v>
+        <v>174187.0084061688</v>
       </c>
       <c r="AE3" t="n">
-        <v>196014.6299930151</v>
+        <v>238330.3494896716</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306362895370376e-06</v>
+        <v>5.620597788370054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.176697530864199</v>
       </c>
       <c r="AH3" t="n">
-        <v>177307.2688147982</v>
+        <v>215584.4354331927</v>
       </c>
     </row>
     <row r="4">
@@ -20229,28 +20229,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.0405070800575</v>
+        <v>153.0527830516051</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.9812058340475</v>
+        <v>209.4135699833533</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.0447539088866</v>
+        <v>189.4274327779933</v>
       </c>
       <c r="AD4" t="n">
-        <v>122040.5070800575</v>
+        <v>153052.7830516051</v>
       </c>
       <c r="AE4" t="n">
-        <v>166981.2058340475</v>
+        <v>209413.5699833533</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.576347857286397e-06</v>
+        <v>6.079554330001694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.709876543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>151044.7539088866</v>
+        <v>189427.4327779933</v>
       </c>
     </row>
     <row r="5">
@@ -20335,28 +20335,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.6121959824459</v>
+        <v>145.4538797534014</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.8174628763437</v>
+        <v>199.0164152508027</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.8510243141599</v>
+        <v>180.0225679006156</v>
       </c>
       <c r="AD5" t="n">
-        <v>114612.1959824459</v>
+        <v>145453.8797534014</v>
       </c>
       <c r="AE5" t="n">
-        <v>156817.4628763437</v>
+        <v>199016.4152508027</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.780424725558213e-06</v>
+        <v>6.426471480587963e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.401234567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>141851.0243141599</v>
+        <v>180022.5679006156</v>
       </c>
     </row>
     <row r="6">
@@ -20441,28 +20441,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.1826703718601</v>
+        <v>144.0243541428156</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.8615228697222</v>
+        <v>197.0604752441812</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.0817564765908</v>
+        <v>178.2533000630465</v>
       </c>
       <c r="AD6" t="n">
-        <v>113182.6703718601</v>
+        <v>144024.3541428156</v>
       </c>
       <c r="AE6" t="n">
-        <v>154861.5228697222</v>
+        <v>197060.4752441812</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.821398913896056e-06</v>
+        <v>6.496124885141469e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.343364197530864</v>
       </c>
       <c r="AH6" t="n">
-        <v>140081.7564765908</v>
+        <v>178253.3000630465</v>
       </c>
     </row>
   </sheetData>
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.5970564139564</v>
+        <v>131.421495497418</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.3778188481973</v>
+        <v>179.8166880466738</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.9803568388693</v>
+        <v>162.6552357138564</v>
       </c>
       <c r="AD2" t="n">
-        <v>102597.0564139564</v>
+        <v>131421.495497418</v>
       </c>
       <c r="AE2" t="n">
-        <v>140377.8188481973</v>
+        <v>179816.6880466738</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965219435675233e-06</v>
+        <v>7.150228971821574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.570987654320987</v>
       </c>
       <c r="AH2" t="n">
-        <v>126980.3568388693</v>
+        <v>162655.2357138564</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.54074191467261</v>
+        <v>127.295903413101</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.1960345151998</v>
+        <v>174.1718709486369</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.1976761334406</v>
+        <v>157.5491520371037</v>
       </c>
       <c r="AD2" t="n">
-        <v>99540.7419146726</v>
+        <v>127295.903413101</v>
       </c>
       <c r="AE2" t="n">
-        <v>136196.0345151998</v>
+        <v>174171.8709486369</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.930412752641455e-06</v>
+        <v>7.332893868535663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.856481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>123197.6761334406</v>
+        <v>157549.1520371037</v>
       </c>
     </row>
   </sheetData>
@@ -35577,28 +35577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.9867843246735</v>
+        <v>299.7459851493393</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.5699704838773</v>
+        <v>410.1256807408987</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.4482048799167</v>
+        <v>370.9838613859947</v>
       </c>
       <c r="AD2" t="n">
-        <v>245986.7843246735</v>
+        <v>299745.9851493393</v>
       </c>
       <c r="AE2" t="n">
-        <v>336569.9704838773</v>
+        <v>410125.6807408987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.241697810953126e-06</v>
+        <v>3.699788637341523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.719135802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>304448.2048799167</v>
+        <v>370983.8613859947</v>
       </c>
     </row>
     <row r="3">
@@ -35683,28 +35683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.0408256313397</v>
+        <v>239.9458667741345</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.5999504563929</v>
+        <v>328.3045205847607</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.8697095708206</v>
+        <v>296.9715979185373</v>
       </c>
       <c r="AD3" t="n">
-        <v>197040.8256313397</v>
+        <v>239945.8667741345</v>
       </c>
       <c r="AE3" t="n">
-        <v>269599.9504563929</v>
+        <v>328304.5205847607</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.649491124453064e-06</v>
+        <v>4.372827197801833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.376543209876544</v>
       </c>
       <c r="AH3" t="n">
-        <v>243869.7095708206</v>
+        <v>296971.5979185373</v>
       </c>
     </row>
     <row r="4">
@@ -35789,28 +35789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.4640395245623</v>
+        <v>210.4543320133776</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.131686869408</v>
+        <v>287.9529016504249</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.263680263</v>
+        <v>260.4710808614288</v>
       </c>
       <c r="AD4" t="n">
-        <v>167464.0395245623</v>
+        <v>210454.3320133776</v>
       </c>
       <c r="AE4" t="n">
-        <v>229131.6868694079</v>
+        <v>287952.9016504249</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.935473413393627e-06</v>
+        <v>4.844823921862221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.658950617283952</v>
       </c>
       <c r="AH4" t="n">
-        <v>207263.680263</v>
+        <v>260471.0808614289</v>
       </c>
     </row>
     <row r="5">
@@ -35895,28 +35895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.1052159935525</v>
+        <v>188.3266896550722</v>
       </c>
       <c r="AB5" t="n">
-        <v>213.590043398361</v>
+        <v>257.6768851731227</v>
       </c>
       <c r="AC5" t="n">
-        <v>193.2053094319912</v>
+        <v>233.0845649040547</v>
       </c>
       <c r="AD5" t="n">
-        <v>156105.2159935525</v>
+        <v>188326.6896550722</v>
       </c>
       <c r="AE5" t="n">
-        <v>213590.043398361</v>
+        <v>257676.8851731227</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.148338685512568e-06</v>
+        <v>5.196145367251604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>193205.3094319912</v>
+        <v>233084.5649040547</v>
       </c>
     </row>
     <row r="6">
@@ -36001,28 +36001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.1096777242126</v>
+        <v>169.4164027317528</v>
       </c>
       <c r="AB6" t="n">
-        <v>187.5995099142594</v>
+        <v>231.8029963416704</v>
       </c>
       <c r="AC6" t="n">
-        <v>169.6952759856612</v>
+        <v>209.680043708437</v>
       </c>
       <c r="AD6" t="n">
-        <v>137109.6777242126</v>
+        <v>169416.4027317528</v>
       </c>
       <c r="AE6" t="n">
-        <v>187599.5099142594</v>
+        <v>231802.9963416704</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.321529235406055e-06</v>
+        <v>5.481986048123043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.887345679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>169695.2759856612</v>
+        <v>209680.0437084369</v>
       </c>
     </row>
     <row r="7">
@@ -36107,28 +36107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.6826864761258</v>
+        <v>162.989411483666</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.8058169497888</v>
+        <v>223.0093033771998</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.7408407356912</v>
+        <v>201.725608458467</v>
       </c>
       <c r="AD7" t="n">
-        <v>130682.6864761258</v>
+        <v>162989.411483666</v>
       </c>
       <c r="AE7" t="n">
-        <v>178805.8169497888</v>
+        <v>223009.3033771998</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.464216359016372e-06</v>
+        <v>5.717482641842754e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH7" t="n">
-        <v>161740.8407356912</v>
+        <v>201725.608458467</v>
       </c>
     </row>
     <row r="8">
@@ -36213,28 +36213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.6070419603249</v>
+        <v>157.7431747672729</v>
       </c>
       <c r="AB8" t="n">
-        <v>171.8610962016411</v>
+        <v>215.8311708542052</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.4589143887677</v>
+        <v>195.2325468288925</v>
       </c>
       <c r="AD8" t="n">
-        <v>125607.0419603249</v>
+        <v>157743.1747672729</v>
       </c>
       <c r="AE8" t="n">
-        <v>171861.096201641</v>
+        <v>215831.1708542052</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.575589334050277e-06</v>
+        <v>5.901297099582784e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.466820987654321</v>
       </c>
       <c r="AH8" t="n">
-        <v>155458.9143887677</v>
+        <v>195232.5468288925</v>
       </c>
     </row>
     <row r="9">
@@ -36319,28 +36319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>122.6139483331952</v>
+        <v>154.7500811401432</v>
       </c>
       <c r="AB9" t="n">
-        <v>167.7658134550327</v>
+        <v>211.7358881075968</v>
       </c>
       <c r="AC9" t="n">
-        <v>151.7544796797289</v>
+        <v>191.5281121198537</v>
       </c>
       <c r="AD9" t="n">
-        <v>122613.9483331952</v>
+        <v>154750.0811401432</v>
       </c>
       <c r="AE9" t="n">
-        <v>167765.8134550327</v>
+        <v>211735.8881075968</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.646578204852141e-06</v>
+        <v>6.018460000080409e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH9" t="n">
-        <v>151754.4796797289</v>
+        <v>191528.1121198537</v>
       </c>
     </row>
     <row r="10">
@@ -36425,28 +36425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.3123120834227</v>
+        <v>154.4484448903707</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.3531014308421</v>
+        <v>211.3231760834062</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.381156311882</v>
+        <v>191.1547887520067</v>
       </c>
       <c r="AD10" t="n">
-        <v>122312.3120834227</v>
+        <v>154448.4448903707</v>
       </c>
       <c r="AE10" t="n">
-        <v>167353.1014308421</v>
+        <v>211323.1760834062</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.659499091400661e-06</v>
+        <v>6.039785153275908e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.343364197530864</v>
       </c>
       <c r="AH10" t="n">
-        <v>151381.156311882</v>
+        <v>191154.7887520067</v>
       </c>
     </row>
     <row r="11">
@@ -36531,28 +36531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>122.3764548090202</v>
+        <v>154.5125876159682</v>
       </c>
       <c r="AB11" t="n">
-        <v>167.4408643377818</v>
+        <v>211.410938990346</v>
       </c>
       <c r="AC11" t="n">
-        <v>151.4605432501594</v>
+        <v>191.2341756902842</v>
       </c>
       <c r="AD11" t="n">
-        <v>122376.4548090202</v>
+        <v>154512.5876159682</v>
       </c>
       <c r="AE11" t="n">
-        <v>167440.8643377818</v>
+        <v>211410.938990346</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.659245740684024e-06</v>
+        <v>6.039367013017174e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.343364197530864</v>
       </c>
       <c r="AH11" t="n">
-        <v>151460.5432501594</v>
+        <v>191234.1756902842</v>
       </c>
     </row>
   </sheetData>
@@ -36828,28 +36828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.4889682801185</v>
+        <v>134.3041848735757</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.0711484793971</v>
+        <v>183.7609108264106</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0348844842166</v>
+        <v>166.2230274072477</v>
       </c>
       <c r="AD2" t="n">
-        <v>107488.9682801185</v>
+        <v>134304.1848735757</v>
       </c>
       <c r="AE2" t="n">
-        <v>147071.1484793971</v>
+        <v>183760.9108264106</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.814536101334763e-06</v>
+        <v>7.335494379627303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.242283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>133034.8844842166</v>
+        <v>166223.0274072477</v>
       </c>
     </row>
   </sheetData>
@@ -37125,28 +37125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.3298210930541</v>
+        <v>152.9380880934642</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.2723256796056</v>
+        <v>209.2566392816405</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.6898440709374</v>
+        <v>189.2854793221983</v>
       </c>
       <c r="AD2" t="n">
-        <v>119329.8210930541</v>
+        <v>152938.0880934642</v>
       </c>
       <c r="AE2" t="n">
-        <v>163272.3256796056</v>
+        <v>209256.6392816405</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.22838007280624e-06</v>
+        <v>6.65885454727115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>147689.8440709374</v>
+        <v>189285.4793221983</v>
       </c>
     </row>
   </sheetData>
@@ -37422,28 +37422,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2157281525188</v>
+        <v>144.9464060630805</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6432422173971</v>
+        <v>198.3220673595469</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.5979924338921</v>
+        <v>179.3944875975778</v>
       </c>
       <c r="AD2" t="n">
-        <v>115215.7281525188</v>
+        <v>144946.4060630805</v>
       </c>
       <c r="AE2" t="n">
-        <v>157643.2422173971</v>
+        <v>198322.0673595469</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.649962445462665e-06</v>
+        <v>6.41284003377794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.856481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>142597.9924338921</v>
+        <v>179394.4875975777</v>
       </c>
     </row>
     <row r="3">
@@ -37528,28 +37528,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.350317138758</v>
+        <v>135.9104028487276</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5131957540453</v>
+        <v>185.9586091213482</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6256205803716</v>
+        <v>168.2109804614062</v>
       </c>
       <c r="AD3" t="n">
-        <v>106350.317138758</v>
+        <v>135910.4028487276</v>
       </c>
       <c r="AE3" t="n">
-        <v>145513.1957540453</v>
+        <v>185958.6091213482</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.932633458016479e-06</v>
+        <v>6.909481852092285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.435956790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>131625.6205803716</v>
+        <v>168210.9804614062</v>
       </c>
     </row>
     <row r="4">
@@ -37634,28 +37634,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.4553095038017</v>
+        <v>136.0153952137713</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.6568509398343</v>
+        <v>186.1022643071372</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.7555655168502</v>
+        <v>168.3409253978848</v>
       </c>
       <c r="AD4" t="n">
-        <v>106455.3095038017</v>
+        <v>136015.3952137713</v>
       </c>
       <c r="AE4" t="n">
-        <v>145656.8509398343</v>
+        <v>186102.2643071372</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.929808409684078e-06</v>
+        <v>6.904518353614128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.439814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>131755.5655168502</v>
+        <v>168340.9253978848</v>
       </c>
     </row>
   </sheetData>
@@ -37931,28 +37931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.9294799945152</v>
+        <v>195.8757662296053</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.9813495346675</v>
+        <v>268.0058647841474</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.750147052832</v>
+        <v>242.4277611978204</v>
       </c>
       <c r="AD2" t="n">
-        <v>154929.4799945152</v>
+        <v>195875.7662296053</v>
       </c>
       <c r="AE2" t="n">
-        <v>211981.3495346674</v>
+        <v>268005.8647841474</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037880507277756e-06</v>
+        <v>5.194437118763922e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.77854938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>191750.147052832</v>
+        <v>242427.7611978204</v>
       </c>
     </row>
     <row r="3">
@@ -38037,28 +38037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.5609416436423</v>
+        <v>168.249410614868</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.2169491171819</v>
+        <v>230.2062662432908</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.2537876576383</v>
+        <v>208.2357032896214</v>
       </c>
       <c r="AD3" t="n">
-        <v>137560.9416436423</v>
+        <v>168249.410614868</v>
       </c>
       <c r="AE3" t="n">
-        <v>188216.9491171819</v>
+        <v>230206.2662432908</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.42364734777003e-06</v>
+        <v>5.854055425224894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.014660493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>170253.7876576383</v>
+        <v>208235.7032896214</v>
       </c>
     </row>
     <row r="4">
@@ -38143,28 +38143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.4246483997349</v>
+        <v>147.1983687169812</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.2973402334346</v>
+        <v>201.4033020121928</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.0942256568207</v>
+        <v>182.181653539516</v>
       </c>
       <c r="AD4" t="n">
-        <v>116424.6483997349</v>
+        <v>147198.3687169811</v>
       </c>
       <c r="AE4" t="n">
-        <v>159297.3402334346</v>
+        <v>201403.3020121928</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.710717234053059e-06</v>
+        <v>6.344912939013064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.547839506172839</v>
       </c>
       <c r="AH4" t="n">
-        <v>144094.2256568207</v>
+        <v>182181.653539516</v>
       </c>
     </row>
     <row r="5">
@@ -38249,28 +38249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.1184113625607</v>
+        <v>142.7215394792148</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.4053567414058</v>
+        <v>195.277906745317</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.7645647998184</v>
+        <v>176.6408573998627</v>
       </c>
       <c r="AD5" t="n">
-        <v>112118.4113625607</v>
+        <v>142721.5394792148</v>
       </c>
       <c r="AE5" t="n">
-        <v>153405.3567414058</v>
+        <v>195277.906745317</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.832740618218736e-06</v>
+        <v>6.55355932735813e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH5" t="n">
-        <v>138764.5647998184</v>
+        <v>176640.8573998627</v>
       </c>
     </row>
     <row r="6">
@@ -38355,28 +38355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>111.6307041096728</v>
+        <v>142.2338322263269</v>
       </c>
       <c r="AB6" t="n">
-        <v>152.7380541618793</v>
+        <v>194.6106041657906</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.1609486419167</v>
+        <v>176.0372412419611</v>
       </c>
       <c r="AD6" t="n">
-        <v>111630.7041096728</v>
+        <v>142233.8322263269</v>
       </c>
       <c r="AE6" t="n">
-        <v>152738.0541618794</v>
+        <v>194610.6041657907</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.851102842257665e-06</v>
+        <v>6.584956684134465e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>138160.9486419167</v>
+        <v>176037.2412419611</v>
       </c>
     </row>
   </sheetData>
@@ -38652,28 +38652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.2761708079146</v>
+        <v>243.524066065192</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.3949365772216</v>
+        <v>333.2003707137948</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.1116303495934</v>
+        <v>301.4001949826268</v>
       </c>
       <c r="AD2" t="n">
-        <v>201276.1708079145</v>
+        <v>243524.066065192</v>
       </c>
       <c r="AE2" t="n">
-        <v>275394.9365772216</v>
+        <v>333200.3707137948</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.55411636284891e-06</v>
+        <v>4.273733226198619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.816358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>249111.6303495934</v>
+        <v>301400.1949826268</v>
       </c>
     </row>
     <row r="3">
@@ -38758,28 +38758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.6556141049317</v>
+        <v>205.8181685076376</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.9208311944004</v>
+        <v>281.609498208776</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.5501413401316</v>
+        <v>254.7330829412262</v>
       </c>
       <c r="AD3" t="n">
-        <v>163655.6141049317</v>
+        <v>205818.1685076376</v>
       </c>
       <c r="AE3" t="n">
-        <v>223920.8311944004</v>
+        <v>281609.498208776</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.950754270810316e-06</v>
+        <v>4.937416616149498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.763117283950618</v>
       </c>
       <c r="AH3" t="n">
-        <v>202550.1413401316</v>
+        <v>254733.0829412262</v>
       </c>
     </row>
     <row r="4">
@@ -38864,28 +38864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.5296179223408</v>
+        <v>181.1302880192784</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.5930200224206</v>
+        <v>247.8304509722012</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.066949339646</v>
+        <v>224.1778605637089</v>
       </c>
       <c r="AD4" t="n">
-        <v>149529.6179223408</v>
+        <v>181130.2880192784</v>
       </c>
       <c r="AE4" t="n">
-        <v>204593.0200224206</v>
+        <v>247830.4509722012</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229337176036894e-06</v>
+        <v>5.403561790909571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>185066.949339646</v>
+        <v>224177.8605637089</v>
       </c>
     </row>
     <row r="5">
@@ -38970,28 +38970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.342585877175</v>
+        <v>161.0285073201331</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.9722321892393</v>
+        <v>220.3263077916693</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.0822507312357</v>
+        <v>199.2986742060107</v>
       </c>
       <c r="AD5" t="n">
-        <v>129342.585877175</v>
+        <v>161028.5073201332</v>
       </c>
       <c r="AE5" t="n">
-        <v>176972.2321892394</v>
+        <v>220326.3077916693</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.448892579896058e-06</v>
+        <v>5.770937858074242e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>160082.2507312357</v>
+        <v>199298.6742060107</v>
       </c>
     </row>
     <row r="6">
@@ -39076,28 +39076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.2052316532313</v>
+        <v>153.8911530961894</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.206589262199</v>
+        <v>210.5606648646289</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.248627058983</v>
+        <v>190.4650505337581</v>
       </c>
       <c r="AD6" t="n">
-        <v>122205.2316532313</v>
+        <v>153891.1530961894</v>
       </c>
       <c r="AE6" t="n">
-        <v>167206.589262199</v>
+        <v>210560.6648646289</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.62375055940689e-06</v>
+        <v>6.063522944553173e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>151248.627058983</v>
+        <v>190465.0505337581</v>
       </c>
     </row>
     <row r="7">
@@ -39182,28 +39182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.0918127885007</v>
+        <v>149.6071420308666</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.5784281002447</v>
+        <v>204.6990919278278</v>
       </c>
       <c r="AC7" t="n">
-        <v>146.1576096991501</v>
+        <v>185.1628978912741</v>
       </c>
       <c r="AD7" t="n">
-        <v>118091.8127885007</v>
+        <v>149607.1420308666</v>
       </c>
       <c r="AE7" t="n">
-        <v>161578.4281002447</v>
+        <v>204699.0919278278</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.727992816422964e-06</v>
+        <v>6.237948669184844e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.354938271604939</v>
       </c>
       <c r="AH7" t="n">
-        <v>146157.6096991501</v>
+        <v>185162.8978912741</v>
       </c>
     </row>
     <row r="8">
@@ -39288,28 +39288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.562855348151</v>
+        <v>149.078184590517</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.8546851944034</v>
+        <v>203.9753490219865</v>
       </c>
       <c r="AC8" t="n">
-        <v>145.5029398004625</v>
+        <v>184.5082279925865</v>
       </c>
       <c r="AD8" t="n">
-        <v>117562.855348151</v>
+        <v>149078.184590517</v>
       </c>
       <c r="AE8" t="n">
-        <v>160854.6851944034</v>
+        <v>203975.3490219865</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.740357034500801e-06</v>
+        <v>6.258637377962496e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.335648148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>145502.9398004625</v>
+        <v>184508.2279925865</v>
       </c>
     </row>
   </sheetData>
